--- a/po_analysis_by_asin/B0CPQ88F7X_po_data.xlsx
+++ b/po_analysis_by_asin/B0CPQ88F7X_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45411</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>64</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45467</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>56</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45481</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>64</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45495</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>16</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45502</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>8</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45509</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>16</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45516</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>24</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45523</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>8</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45537</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>8</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45551</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>88</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45558</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>40</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45565</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>24</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45572</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>48</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45586</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>368</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45593</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>96</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45621</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>200</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45628</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>16</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45635</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>40</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45383</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>64</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>56</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>88</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>48</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>136</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>536</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45597</v>
+        <v>45626.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>200</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45627</v>
+        <v>45657.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>56</v>

--- a/po_analysis_by_asin/B0CPQ88F7X_po_data.xlsx
+++ b/po_analysis_by_asin/B0CPQ88F7X_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -621,7 +622,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -687,6 +688,411 @@
       </c>
       <c r="B9" t="n">
         <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-99.23977653096017</v>
+      </c>
+      <c r="D2" t="n">
+        <v>114.3822611154677</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>33</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-73.63532576045743</v>
+      </c>
+      <c r="D3" t="n">
+        <v>128.8236911141965</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>39</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-58.74362763247451</v>
+      </c>
+      <c r="D4" t="n">
+        <v>149.8293760139039</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>45</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-61.51433757220882</v>
+      </c>
+      <c r="D5" t="n">
+        <v>145.0279194514935</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>48</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-61.53731000037603</v>
+      </c>
+      <c r="D6" t="n">
+        <v>159.8266018352646</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>51</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-55.34464564743075</v>
+      </c>
+      <c r="D7" t="n">
+        <v>154.1148796191494</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>54</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-52.88041364769571</v>
+      </c>
+      <c r="D8" t="n">
+        <v>163.1662985793548</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>58</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-45.04723841414012</v>
+      </c>
+      <c r="D9" t="n">
+        <v>161.5175852419939</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>64</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-43.52775382604583</v>
+      </c>
+      <c r="D10" t="n">
+        <v>167.5104201682381</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>70</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-35.35971268867063</v>
+      </c>
+      <c r="D11" t="n">
+        <v>175.2388085586951</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>73</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-32.12496214426726</v>
+      </c>
+      <c r="D12" t="n">
+        <v>177.4146558537745</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>76</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-26.94366184008974</v>
+      </c>
+      <c r="D13" t="n">
+        <v>183.3015755515291</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>79</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-14.3246068715131</v>
+      </c>
+      <c r="D14" t="n">
+        <v>181.2509763738042</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>86</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-26.45946989766637</v>
+      </c>
+      <c r="D15" t="n">
+        <v>193.4263326246084</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>89</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-12.75619868057782</v>
+      </c>
+      <c r="D16" t="n">
+        <v>193.4660998549276</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>101</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-4.766740259337642</v>
+      </c>
+      <c r="D17" t="n">
+        <v>199.2060735939936</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>104</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3.561830846854331</v>
+      </c>
+      <c r="D18" t="n">
+        <v>201.0983572157698</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>107</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.503003538089725</v>
+      </c>
+      <c r="D19" t="n">
+        <v>214.3519529706412</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>110</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.985884698650769</v>
+      </c>
+      <c r="D20" t="n">
+        <v>220.7789566188835</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>113</v>
+      </c>
+      <c r="C21" t="n">
+        <v>11.37536727208895</v>
+      </c>
+      <c r="D21" t="n">
+        <v>219.4344863348234</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>117</v>
+      </c>
+      <c r="C22" t="n">
+        <v>9.695192984022253</v>
+      </c>
+      <c r="D22" t="n">
+        <v>221.4424716745747</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>120</v>
+      </c>
+      <c r="C23" t="n">
+        <v>12.58755744316362</v>
+      </c>
+      <c r="D23" t="n">
+        <v>216.9924108918464</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>123</v>
+      </c>
+      <c r="C24" t="n">
+        <v>18.22621279873009</v>
+      </c>
+      <c r="D24" t="n">
+        <v>231.6643247830666</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>126</v>
+      </c>
+      <c r="C25" t="n">
+        <v>20.34108048833689</v>
+      </c>
+      <c r="D25" t="n">
+        <v>232.7190538892919</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45690.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>129</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24.92327716017656</v>
+      </c>
+      <c r="D26" t="n">
+        <v>235.14532486934</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45697.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>132</v>
+      </c>
+      <c r="C27" t="n">
+        <v>28.97095034093076</v>
+      </c>
+      <c r="D27" t="n">
+        <v>237.6408669126868</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CPQ88F7X_po_data.xlsx
+++ b/po_analysis_by_asin/B0CPQ88F7X_po_data.xlsx
@@ -701,7 +701,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -720,16 +720,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -738,12 +728,6 @@
       <c r="B2" t="n">
         <v>8</v>
       </c>
-      <c r="C2" t="n">
-        <v>-99.23977653096017</v>
-      </c>
-      <c r="D2" t="n">
-        <v>114.3822611154677</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -752,12 +736,6 @@
       <c r="B3" t="n">
         <v>33</v>
       </c>
-      <c r="C3" t="n">
-        <v>-73.63532576045743</v>
-      </c>
-      <c r="D3" t="n">
-        <v>128.8236911141965</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -766,12 +744,6 @@
       <c r="B4" t="n">
         <v>39</v>
       </c>
-      <c r="C4" t="n">
-        <v>-58.74362763247451</v>
-      </c>
-      <c r="D4" t="n">
-        <v>149.8293760139039</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -780,12 +752,6 @@
       <c r="B5" t="n">
         <v>45</v>
       </c>
-      <c r="C5" t="n">
-        <v>-61.51433757220882</v>
-      </c>
-      <c r="D5" t="n">
-        <v>145.0279194514935</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -794,12 +760,6 @@
       <c r="B6" t="n">
         <v>48</v>
       </c>
-      <c r="C6" t="n">
-        <v>-61.53731000037603</v>
-      </c>
-      <c r="D6" t="n">
-        <v>159.8266018352646</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -808,12 +768,6 @@
       <c r="B7" t="n">
         <v>51</v>
       </c>
-      <c r="C7" t="n">
-        <v>-55.34464564743075</v>
-      </c>
-      <c r="D7" t="n">
-        <v>154.1148796191494</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -822,12 +776,6 @@
       <c r="B8" t="n">
         <v>54</v>
       </c>
-      <c r="C8" t="n">
-        <v>-52.88041364769571</v>
-      </c>
-      <c r="D8" t="n">
-        <v>163.1662985793548</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -836,12 +784,6 @@
       <c r="B9" t="n">
         <v>58</v>
       </c>
-      <c r="C9" t="n">
-        <v>-45.04723841414012</v>
-      </c>
-      <c r="D9" t="n">
-        <v>161.5175852419939</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -850,12 +792,6 @@
       <c r="B10" t="n">
         <v>64</v>
       </c>
-      <c r="C10" t="n">
-        <v>-43.52775382604583</v>
-      </c>
-      <c r="D10" t="n">
-        <v>167.5104201682381</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -864,12 +800,6 @@
       <c r="B11" t="n">
         <v>70</v>
       </c>
-      <c r="C11" t="n">
-        <v>-35.35971268867063</v>
-      </c>
-      <c r="D11" t="n">
-        <v>175.2388085586951</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -878,12 +808,6 @@
       <c r="B12" t="n">
         <v>73</v>
       </c>
-      <c r="C12" t="n">
-        <v>-32.12496214426726</v>
-      </c>
-      <c r="D12" t="n">
-        <v>177.4146558537745</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -892,12 +816,6 @@
       <c r="B13" t="n">
         <v>76</v>
       </c>
-      <c r="C13" t="n">
-        <v>-26.94366184008974</v>
-      </c>
-      <c r="D13" t="n">
-        <v>183.3015755515291</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -906,12 +824,6 @@
       <c r="B14" t="n">
         <v>79</v>
       </c>
-      <c r="C14" t="n">
-        <v>-14.3246068715131</v>
-      </c>
-      <c r="D14" t="n">
-        <v>181.2509763738042</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -920,12 +832,6 @@
       <c r="B15" t="n">
         <v>86</v>
       </c>
-      <c r="C15" t="n">
-        <v>-26.45946989766637</v>
-      </c>
-      <c r="D15" t="n">
-        <v>193.4263326246084</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -934,12 +840,6 @@
       <c r="B16" t="n">
         <v>89</v>
       </c>
-      <c r="C16" t="n">
-        <v>-12.75619868057782</v>
-      </c>
-      <c r="D16" t="n">
-        <v>193.4660998549276</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -948,12 +848,6 @@
       <c r="B17" t="n">
         <v>101</v>
       </c>
-      <c r="C17" t="n">
-        <v>-4.766740259337642</v>
-      </c>
-      <c r="D17" t="n">
-        <v>199.2060735939936</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -962,12 +856,6 @@
       <c r="B18" t="n">
         <v>104</v>
       </c>
-      <c r="C18" t="n">
-        <v>3.561830846854331</v>
-      </c>
-      <c r="D18" t="n">
-        <v>201.0983572157698</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -976,12 +864,6 @@
       <c r="B19" t="n">
         <v>107</v>
       </c>
-      <c r="C19" t="n">
-        <v>3.503003538089725</v>
-      </c>
-      <c r="D19" t="n">
-        <v>214.3519529706412</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -990,12 +872,6 @@
       <c r="B20" t="n">
         <v>110</v>
       </c>
-      <c r="C20" t="n">
-        <v>2.985884698650769</v>
-      </c>
-      <c r="D20" t="n">
-        <v>220.7789566188835</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1004,12 +880,6 @@
       <c r="B21" t="n">
         <v>113</v>
       </c>
-      <c r="C21" t="n">
-        <v>11.37536727208895</v>
-      </c>
-      <c r="D21" t="n">
-        <v>219.4344863348234</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1018,12 +888,6 @@
       <c r="B22" t="n">
         <v>117</v>
       </c>
-      <c r="C22" t="n">
-        <v>9.695192984022253</v>
-      </c>
-      <c r="D22" t="n">
-        <v>221.4424716745747</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1032,12 +896,6 @@
       <c r="B23" t="n">
         <v>120</v>
       </c>
-      <c r="C23" t="n">
-        <v>12.58755744316362</v>
-      </c>
-      <c r="D23" t="n">
-        <v>216.9924108918464</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1046,12 +904,6 @@
       <c r="B24" t="n">
         <v>123</v>
       </c>
-      <c r="C24" t="n">
-        <v>18.22621279873009</v>
-      </c>
-      <c r="D24" t="n">
-        <v>231.6643247830666</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1060,12 +912,6 @@
       <c r="B25" t="n">
         <v>126</v>
       </c>
-      <c r="C25" t="n">
-        <v>20.34108048833689</v>
-      </c>
-      <c r="D25" t="n">
-        <v>232.7190538892919</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1074,12 +920,6 @@
       <c r="B26" t="n">
         <v>129</v>
       </c>
-      <c r="C26" t="n">
-        <v>24.92327716017656</v>
-      </c>
-      <c r="D26" t="n">
-        <v>235.14532486934</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1087,12 +927,6 @@
       </c>
       <c r="B27" t="n">
         <v>132</v>
-      </c>
-      <c r="C27" t="n">
-        <v>28.97095034093076</v>
-      </c>
-      <c r="D27" t="n">
-        <v>237.6408669126868</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CPQ88F7X_po_data.xlsx
+++ b/po_analysis_by_asin/B0CPQ88F7X_po_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,6 +595,38 @@
         <v>40</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -606,7 +638,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -690,6 +722,14 @@
         <v>56</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45688.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>156</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -701,7 +741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -726,7 +766,7 @@
         <v>45417.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -734,7 +774,7 @@
         <v>45473.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
@@ -742,7 +782,7 @@
         <v>45487.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
@@ -750,7 +790,7 @@
         <v>45501.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
@@ -758,7 +798,7 @@
         <v>45508.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
@@ -766,7 +806,7 @@
         <v>45515.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
@@ -782,7 +822,7 @@
         <v>45529.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
@@ -790,7 +830,7 @@
         <v>45543.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
@@ -798,7 +838,7 @@
         <v>45557.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
@@ -806,7 +846,7 @@
         <v>45564.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -814,7 +854,7 @@
         <v>45571.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14">
@@ -822,7 +862,7 @@
         <v>45578.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15">
@@ -830,7 +870,7 @@
         <v>45592.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>86</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16">
@@ -838,7 +878,7 @@
         <v>45599.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>89</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17">
@@ -846,7 +886,7 @@
         <v>45627.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18">
@@ -854,7 +894,7 @@
         <v>45634.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>104</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
@@ -862,71 +902,103 @@
         <v>45641.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>107</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45648.99999999999</v>
+        <v>45662.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>110</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45655.99999999999</v>
+        <v>45669.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45662.99999999999</v>
+        <v>45676.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>117</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45669.99999999999</v>
+        <v>45683.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>120</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45676.99999999999</v>
+        <v>45690.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>123</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45683.99999999999</v>
+        <v>45697.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>126</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45690.99999999999</v>
+        <v>45704.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>129</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45697.99999999999</v>
+        <v>45711.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>132</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45718.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45725.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45732.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45739.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
